--- a/biology/Médecine/Christine_Janin/Christine_Janin.xlsx
+++ b/biology/Médecine/Christine_Janin/Christine_Janin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Janin est née le 14 mars 1957 à Rome en Italie. Elle est docteure en médecine et alpiniste.
 </t>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après plusieurs expéditions dans l'Himalaya, elle atteint le sommet de l'Everest en 1990. C'est la première française à réaliser cet exploit. 
 En 1997, Christine a parcouru l'Arctique à ski et atteint le pôle Nord en 62 jours. C'est la deuxième femme au monde à atteindre le pôle Nord sans moyens mécaniques, et la première sans chiens de traîneaux. En 2017, seules deux femmes l'ont réalisé.
-Engagement associatif
-En 1994, en liaison avec d'autres personnalités du milieu médical, Christine Janin crée l'association À chacun son Everest qui, grâce à des stages en montagne, « permet à des enfants atteints de cancer et de leucémie de retrouver confiance en eux en devenant acteurs et moteurs de leur guérison ». Son siège est domicilié à Chamonix[1],[2],[3]. Ultérieurement, l'association ouvre ses portes à « des femmes en rémission du cancer du sein »[4]. De 1994 à 2021, 4 676 enfants et 1 460 femmes ont été accueillis.
 </t>
         </is>
       </c>
@@ -542,15 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Commandeure de l'ordre national du Mérite  Elle est promue commandeure par décret du 14 novembre 2011[5]. Elle était officière du 11 juillet 2005 ;
- Officière de la Légion d'honneur  Elle est promue officière par décret du 21 mars 2008[6]. Elle était chevalière du 9 février 1996, remise par le Président Jacques Chirac à l'Élysée en 1996 ;
- Chevalière de l'ordre des Arts et des Lettres en 2003 ;
-Membre de l'Académie des Sports en 1998.</t>
+          <t>Engagement associatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, en liaison avec d'autres personnalités du milieu médical, Christine Janin crée l'association À chacun son Everest qui, grâce à des stages en montagne, « permet à des enfants atteints de cancer et de leucémie de retrouver confiance en eux en devenant acteurs et moteurs de leur guérison ». Son siège est domicilié à Chamonix. Ultérieurement, l'association ouvre ses portes à « des femmes en rémission du cancer du sein ». De 1994 à 2021, 4 676 enfants et 1 460 femmes ont été accueillis.
+</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeure de l'ordre national du Mérite  Elle est promue commandeure par décret du 14 novembre 2011. Elle était officière du 11 juillet 2005 ;
+ Officière de la Légion d'honneur  Elle est promue officière par décret du 21 mars 2008. Elle était chevalière du 9 février 1996, remise par le Président Jacques Chirac à l'Élysée en 1996 ;
+ Chevalière de l'ordre des Arts et des Lettres en 2003 ;
+Membre de l'Académie des Sports en 1998.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christine_Janin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christine_Janin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Trophées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Elle a reçu :
 le Trophée Micheline Ostermeyer le 14 novembre 2012 (statuette d'après la Discobole du sculpteur Jacques Gestalder érigée à l'Insep près du stade Gilbert Omnès) ;
@@ -593,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Christine_Janin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christine_Janin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Palmarès et aventures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1981 : ascension du Gasherbrum II (8 035 m), Himalaya du Pakistan. 1re Française à plus de 8 000 m sans oxygène.
 1983 : expédition Makalu II (7 660 m) et Baruntse (7 220 m), au Népal.
@@ -638,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Christine_Janin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christine_Janin</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Trekking, Glénat, collection « solo », 1992
 Première Française à l’Everest, Denoël, 1992
@@ -674,31 +731,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Christine_Janin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christine_Janin</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Désir d'Everest
 Au fil des cimes
